--- a/DOM_Banner/output/dept_banner/Geoffrey Block_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Geoffrey Block_2023.xlsx
@@ -1124,12 +1124,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier eBooks</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4306463230</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abstract Background Widespread use of at-home COVID-19 tests hampers determination of community COVID-19 incidence. Using nationwide data available through the US National Wastewater Surveillance System, we examined the performance of two wastewater metrics in predicting high case and hospitalizations rates both before and after widespread use of at-home tests. Methods We performed area under the receiver operating characteristic (ROC) curve analysis (AUC) for two wastewater metrics—viral concentration relative to the peak of January 2022 (“wastewater percentile”) and 15-day percent change in SARS-CoV-2 (“percent change”). Dichotomized reported cases (≥ 200 or &amp;lt;200 cases per 100,000) and new hospitalizations (≥ 10 or &amp;lt;10 per 100,000) were our dependent variables, stratified by calendar quarter. Using logistic regression, we assessed the performance of combining wastewater metrics. Results Among 268 counties across 22 states, wastewater percentile detected high reported case and hospitalizations rates in the first quarter of 2022 (AUC 0.95 and 0.86 respectively) whereas the percent change did not (AUC 0.54 and 0.49 respectively). A wastewater percentile of 51% maximized sensitivity (0.93) and specificity (0.82) for detecting high case rates. A model inclusive of both metrics performed no better than using wastewater percentile alone. The predictive capability of wastewater percentile declined over time (AUC 0.84 and 0.72 for cases for second and third quarters of 2022). Conclusion Nationwide, county wastewater levels above 51% relative to the historic peak predicted high COVID rates and hospitalization in the first quarter of 2022, but performed less well in subsequent quarters. Decline over time in predictive performance of this metric likely reflects underreporting of cases, reduced testing, and possibly lower virulence of infection due to vaccines and treatments.</t>
+          <t>Widespread use of at-home COVID-19 tests hampers determination of community COVID-19 incidence. Using nationwide data available through the US National Wastewater Surveillance System, we examined the performance of two wastewater metrics in predicting high case and hospitalizations rates both before and after widespread use of at-home tests.We performed area under the receiver operating characteristic (ROC) curve analysis (AUC) for two wastewater metrics-viral concentration relative to the peak of January 2022 ("wastewater percentile") and 15-day percent change in SARS-CoV-2 ("percent change"). Dichotomized reported cases (≥ 200 or &lt;200 cases per 100,000) and new hospitalizations (≥ 10 or &lt;10 per 100,000) were our dependent variables, stratified by calendar quarter. Using logistic regression, we assessed the performance of combining wastewater metrics.Among 268 counties across 22 states, wastewater percentile detected high reported case and hospitalizations rates in the first quarter of 2022 (AUC 0.95 and 0.86 respectively) whereas the percent change did not (AUC 0.54 and 0.49 respectively). A wastewater percentile of 51% maximized sensitivity (0.93) and specificity (0.82) for detecting high case rates. A model inclusive of both metrics performed no better than using wastewater percentile alone. The predictive capability of wastewater percentile declined over time (AUC 0.84 and 0.72 for cases for second and third quarters of 2022).Nationwide, county wastewater levels above 51% relative to the historic peak predicted high COVID rates and hospitalization in the first quarter of 2022, but performed less well in subsequent quarters. Decline over time in predictive performance of this metric likely reflects underreporting of cases, reduced testing, and possibly lower virulence of infection due to vaccines and treatments.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2288200797", "https://openalex.org/W345560293", "https://openalex.org/W608559232", "https://openalex.org/W2526768593", "https://openalex.org/W4250688413", "https://openalex.org/W1550559433", "https://openalex.org/W2808579301", "https://openalex.org/W2386767720", "https://openalex.org/W2066363065", "https://openalex.org/W2309911084")</t>
+          <t>c("https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3009669391", "https://openalex.org/W4205317059", "https://openalex.org/W3005417802", "https://openalex.org/W3084498529", "https://openalex.org/W3171943759", "https://openalex.org/W4226296940", "https://openalex.org/W3036314732", "https://openalex.org/W3134376730")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Oxford University Press eBooks</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4306463708</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4376527619", "https://openalex.org/W2377074369", "https://openalex.org/W2561843268", "https://openalex.org/W2285349705", "https://openalex.org/W3013339694", "https://openalex.org/W4289732247", "https://openalex.org/W3044411392", "https://openalex.org/W2952193828", "https://openalex.org/W3024928848", "https://openalex.org/W3120735633")</t>
+          <t>c("https://openalex.org/W4376527619", "https://openalex.org/W2377074369", "https://openalex.org/W2285349705", "https://openalex.org/W3013339694", "https://openalex.org/W4289732247", "https://openalex.org/W3044411392", "https://openalex.org/W2952193828", "https://openalex.org/W3024928848", "https://openalex.org/W3120735633", "https://openalex.org/W4303987336")</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3199894417", "https://openalex.org/W373964730", "https://openalex.org/W178620215", "https://openalex.org/W392621609", "https://openalex.org/W2537599345", "https://openalex.org/W2049507953", "https://openalex.org/W2014634767", "https://openalex.org/W3016102847", "https://openalex.org/W2389938625", "https://openalex.org/W4386493544")</t>
+          <t>c("https://openalex.org/W392621609", "https://openalex.org/W3199894417", "https://openalex.org/W2537599345", "https://openalex.org/W3016102847", "https://openalex.org/W2049507953", "https://openalex.org/W2389938625", "https://openalex.org/W4386493544", "https://openalex.org/W1555246577", "https://openalex.org/W2979584651", "https://openalex.org/W2357077499")</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2356237291", "https://openalex.org/W2960896737", "https://openalex.org/W2390208690", "https://openalex.org/W2371365383", "https://openalex.org/W2386180132", "https://openalex.org/W2383392149", "https://openalex.org/W2392428765", "https://openalex.org/W2355941487", "https://openalex.org/W3012488370", "https://openalex.org/W1972120145")</t>
+          <t>c("https://openalex.org/W2356237291", "https://openalex.org/W2960896737", "https://openalex.org/W2390208690", "https://openalex.org/W2371365383", "https://openalex.org/W2386180132", "https://openalex.org/W2383392149", "https://openalex.org/W2392428765", "https://openalex.org/W2355941487", "https://openalex.org/W3012488370", "https://openalex.org/W2112505184")</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Geoffrey Block_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Geoffrey Block_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University, Palo Alto, California; Division of Nephrology, Department of Medicine, Stanford University, Palo Alto, California; Department of Health Policy, Stanford University, Stanford, California; Division of Nephrology, Department of Medicine, Stanford University, Palo Alto, California; US Renal Care, Plano, Texas; Department of Health Policy, Stanford University, Stanford, California; Division of Nephrology, Department of Medicine, Stanford University, Palo Alto, California; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University, Palo Alto, California; Division of Nephrology, Department of Medicine, Stanford University, Palo Alto, California</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385264701</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Use of Wastewater Metrics to Track COVID-19 in the US</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA network open</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2023.25591</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37494040</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2023.25591</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology and Hepatology, Indiana University School of Medicine, Indianapolis, Indiana; Department of Medicine, Indiana University School of Medicine, Indianapolis, Indiana; Department of Biostatistics and Health Data Science, Indiana University School of Medicine, Indianapolis, Indiana; Division of Gastroenterology and Hepatology, Indiana University School of Medicine, Indianapolis, Indiana; Division of Gastroenterology and Hepatology, Indiana University School of Medicine, Indianapolis, Indiana; Division of Gastroenterology and Hepatology, Indiana University School of Medicine, Indianapolis, Indiana; Division of Gastroenterology and Hepatology, Indiana University School of Medicine, Indianapolis, Indiana; Thomas Boyer Liver Institute and Division of Gastroenterology and Hepatology, University of Arizona College of Medicine-Tucson, Tucson, Arizona; Division of Gastroenterology and Hepatology, University of Arizona College of Medicine-Phoenix, Phoenix, Arizona; Department of Biostatistics and Health Data Science, Indiana University School of Medicine, Indianapolis, Indiana; Department of Medicine, Indiana University School of Medicine, Indianapolis, Indiana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293766995</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Measuring Medication Use, Obstacles, and Knowledge in Individuals With Cirrhosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Gastroenterology and Hepatology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cgh.2022.08.025</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36055568</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cgh.2022.08.025</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Clinical Nephrology FellowPrincess Alexandra Hospital and Queensland Children’s Hospital, Brisbane, QLD, Australia; Member of Medical Technology Indonesia Medical Education and Research Institute (IMERI)Consultant Paediatric NephrologistPaediatric Nephrology DivisionDepartment of Child HealthFaculty of Medicine, Universitas IndonesiaCipto Mangunkusumo Hospital, JakartaDKI JakartaIndonesia; Associate Professor Pediatrics Icahn School of Medicine at Mount Sinai, New York NY, United States; Professor Psychology Fordham University Bronx, NY United States; Assistant Professor of MedicineCleveland Clinic Lerner College of Medicine of Case Western Reserve UniversityDepartment of Kidney MedicineGlickman Urological &amp; Kidney InstituteCleveland ClinicCleveland, OHUnited States; Associate Professor Department of Pediatrics University of Central Florida, Orlando FL United States; Associate Professor Department of Pediatrics, Division of Pediatric Nephrology Nemours Children’s Hospital, Orlando FL United States; Physician Department of Obstetrics and Gynecology Città della Salute e della Scienza, Ospedale Sant’Anna Turin Italy; Associate Professor of PediatricsDivision of Pediatric NephrologyHoops Family Children’s Hospital at CabellHuntington HospitalJoan C. Edwards School of Medicine at Marshall UniversityHuntington, WV, United States; Professor of Pediatrics Pediatric Nephrology, Reference Center for Rare Renal Diseases Hospices Civils de Lyon, Bron France; Associate Professor Pediatrics, Division of Pediatric Nephrology Central Michigan University College of Medicine, Detroit MI United States; Director Peritoneal Dialysis Program University Health Network, Toronto ON Canada; Professor University of Toronto, Toronto ON Canada; Research, Innovation and Brand Reputation Ospedale di Bergamo, ASST-Papa Giovanni XXIII, Bergamo Italy; Instructor of Medicine Division of Nephrology Saint Louis University, Saint Louis MO United States; Medical Director Legacy Transplant Services Legacy Health Systems, Portland OR United States; Professor of Medicine (Retired) Oregon Health &amp; Science University, Portland OR United States; Physician Nephrology Kootenai Health, Coeur d’Alene ID United States; Clinical Associate Professor Department of Pathology and Laboratory Medicine University of British Columbia, St. Paul’s Hospital Vancouver BC Canada; ; Associate Professor Department of Medicine University of Virginia School of Medicine, Charlottesville VA United States; Chairman Pediatrics University of Rochester, Rochester NY United States; Vascular Access Marketing Manager Marketing Transonic, Lansdale PA United States; Vice President for Research DaVita Clinical Research DaVita, Inc, Minneapolis MN United States; Professor of Medicine and of Pharmacology and Physiology Medicine University of Rochester School of Medicine and Dentistry, Rochester NY, New York United States; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Vice President for Research DaVita Clinical Research DaVita, Inc, Minneapolis MN United States; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4288746025</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Contributors</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-79135-9.09989-4</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-79135-9.09989-4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4288746395</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Phosphate Management in Patients with End-Stage Kidney Disease</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-79135-9.00040-9</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-79135-9.00040-9</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Stanford University;;  Stanford University;;  Stanford University;;  Stanford University;; US Renal Care, Plano, Texas;  Stanford University;;  Stanford University;;  Stanford University;;  Stanford University;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319457154</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Use of wastewater metrics to track COVID-19 in the U.S.: a national time-series analysis over the first three quarters of 2022</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.06.23285542</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36798337</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.06.23285542</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Department of Medicine (Nephrology), Stanford University, Stanford, California; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; G.M.C., J.P., and G.B. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Stanford, California; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; G.M.C., J.P., and G.B. contributed equally to this work.; 2Departments of Medicine (Infectious Diseases and Geographic Medicine), and Epidemiology and Population Health, Stanford University, Stanford, California; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; G.M.C., J.P., and G.B. contributed equally to this work.; 1Department of Medicine (Nephrology), Stanford University, Stanford, California; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 6Departments of Medicine (Nephrology), and Epidemiology and Population Health, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.; 2Departments of Medicine (Infectious Diseases and Geographic Medicine), and Epidemiology and Population Health, Stanford University, Stanford, California; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; G.M.C., J.P., and G.B. contributed equally to this work.; 3US Renal Care, Plano, Texas; 4Ascend Clinical Laboratory, Sunnyvale, California; 5Department of Health Policy, Stanford University, Stanford, California; G.M.C., J.P., and G.B. contributed equally to this work.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361213691</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Feasibility and Acceptability of SARS-CoV-2 Screening among Patients Receiving Hemodialysis</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000137</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36976655</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000137</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -937,41 +972,36 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://openalex.org/W4377037515</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The Hollywood Studio System and a Brief Survey of Film Adaptations from &lt;i&gt;Show Boat&lt;/i&gt; to &lt;i&gt;Cabaret&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0001</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1009,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0001</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1019,41 +1054,36 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://openalex.org/W4377037635</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Challenging the Hollywood Studio Model</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0003</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1091,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0003</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1101,41 +1136,36 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://openalex.org/W4377037718</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1940s Stage Musicals and Their Screen Adaptations</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0004</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1173,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0004</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1183,41 +1218,36 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://openalex.org/W4377037765</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Stretching Boundaries in the Wake of the Studio System Era</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0008</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1255,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0008</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1265,41 +1300,36 @@
           <t>Geoffrey A. Block</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://openalex.org/W4377037829</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>A (Mostly) All-Asian American Musical</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Oxford University Press eBooks</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0007</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1337,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/oso/9780197501733.003.0007</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1349,39 +1384,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, College of Medicine, King Faisal University, Al-Hasa, Saudi Arabia; Arbor Research Collaborative for Health, Ann Arbor, Michigan, USA; University of Texas Health Science Center at San Antonio, San Antonio, TX, USA; US Renal Care, Plano, TX, USA; Emory University, Atlanta, GA, USA; University of Pittsburgh School of Medicine, Pittsburgh, PA, USA; DaVita Inc, Denver, CO, USA; Division of Nephrology and Hypertension, Weill Cornell Medicine, New York, New York; The Rogosin Institute, New York, NY, USA; Division of Hypertension and Renal Diseases, University of Colorado-Denver, Aurora, Colorado, USA; University of Virginia, Charlottesville, VA, USA; Department of Nephrology and Hypertension, Vanderbilt University Medical Center, Nashville, TN, USA; University of Washington, Seattle, WA, USA; Arbor Research Collaborative for Health, Ann Arbor, Michigan, USA; Arbor Research Collaborative for Health, Ann Arbor, Michigan, USA; Division of Nephrology, St. Michael’s Hospital and the Keenan Research Center in the Li Ka Shing Knowledge Institute, St. Michael’s Hospital, Toronto, Ontario, Canada</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387911764</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Standardized Peritonitis Reporting: A Quality Improvement Initiative of the Optimizing Prevention of Peritoneal Dialysis–Associated Peritonitis in the United States (OPPUS) Study</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>American Journal of Kidney Diseases</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2023.09.004</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1424,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37879528</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2023.09.004</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1471,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; Roswell Park Comprehensive Cancer Center; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388145788</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Disparities in Hepatocellular Carcinoma Incidence Among Hispanic and Non-Hispanic Adults in Arizona: Trends between 2009-2017</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1496,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2139/ssrn.4617417</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4617417</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
